--- a/TaiKhoan.xlsx
+++ b/TaiKhoan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\source\repos\Demo-Login-With-OTP-And-QR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{222A2304-E321-4D16-9027-6A1B65219B86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6A25FB0-3877-4ED3-B8CD-00C157DEE843}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>ID</t>
   </si>
@@ -46,6 +46,12 @@
   </si>
   <si>
     <t>phat</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>phanngocduc818@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -393,7 +399,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -432,10 +438,18 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="1">
+        <v>123</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
@@ -535,6 +549,7 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{9E8457A6-75FD-4E2A-97E9-CBCDD627A501}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{7A664593-4009-4261-B466-48D0857888DF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/TaiKhoan.xlsx
+++ b/TaiKhoan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\source\repos\Demo-Login-With-OTP-And-QR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6A25FB0-3877-4ED3-B8CD-00C157DEE843}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{669CAE62-02DE-411A-B4BC-B4977BE4EC1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,9 +39,6 @@
     <t>Mật khẩu</t>
   </si>
   <si>
-    <t>Q</t>
-  </si>
-  <si>
     <t>phat14072009@gmail.com</t>
   </si>
   <si>
@@ -52,6 +49,9 @@
   </si>
   <si>
     <t>phanngocduc818@gmail.com</t>
+  </si>
+  <si>
+    <t>phat Tan</t>
   </si>
 </sst>
 </file>
@@ -399,7 +399,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -428,13 +428,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -442,10 +442,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>8</v>
       </c>
       <c r="D3" s="1">
         <v>123</v>
